--- a/Project/Data/Player.xlsx
+++ b/Project/Data/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Just Run\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E33B9E8-12D5-4075-B8CC-9042513AC619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D743F1-14A9-402A-A27C-10F4604AA0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-675" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{DA316738-77F8-4576-8260-A9B35D3DA27D}"/>
+    <workbookView xWindow="1845" yWindow="3945" windowWidth="24150" windowHeight="11295" xr2:uid="{DA316738-77F8-4576-8260-A9B35D3DA27D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FlameSpirit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dasd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +67,21 @@
   </si>
   <si>
     <t>MaxLife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameSpirit_Easy</t>
+  </si>
+  <si>
+    <t>FlameSpirit_Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameSpirit_Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameSpirit_Hard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +449,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -453,19 +460,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(B10:B100)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -482,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -494,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -512,13 +519,34 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
